--- a/banhang24/Template/ExportExcel/Gara/Template_BaoCaoDoanhThuSuaChuaTongHop.xlsx
+++ b/banhang24/Template/ExportExcel/Gara/Template_BaoCaoDoanhThuSuaChuaTongHop.xlsx
@@ -1,25 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC43FFD-78BA-4EDB-A2BA-95A547185FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Mã tiếp nhận</t>
   </si>
@@ -82,12 +94,15 @@
   </si>
   <si>
     <t>Giảm Giá</t>
+  </si>
+  <si>
+    <t>Giảm trừ BH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm"/>
   </numFmts>
@@ -95,7 +110,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -103,7 +118,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -111,7 +126,7 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -171,7 +186,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -469,37 +484,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:R1"/>
+      <selection pane="bottomLeft" sqref="A1:S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" customWidth="1"/>
-    <col min="18" max="18" width="15" customWidth="1"/>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.125" customWidth="1"/>
+    <col min="12" max="12" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.25" customWidth="1"/>
+    <col min="14" max="14" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.125" customWidth="1"/>
+    <col min="17" max="17" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.125" customWidth="1"/>
+    <col min="19" max="19" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
@@ -520,8 +536,9 @@
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1" s="6"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>18</v>
       </c>
@@ -542,8 +559,9 @@
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2" s="7"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
@@ -564,8 +582,9 @@
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
-    </row>
-    <row r="5" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S3" s="7"/>
+    </row>
+    <row r="5" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -600,28 +619,31 @@
         <v>20</v>
       </c>
       <c r="L5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="P5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="Q5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="R5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="S5" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
@@ -638,10 +660,11 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
-      <c r="Q6" s="1"/>
+      <c r="Q6" s="3"/>
       <c r="R6" s="1"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
@@ -658,10 +681,11 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
-      <c r="Q7" s="1"/>
+      <c r="Q7" s="3"/>
       <c r="R7" s="1"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
@@ -678,10 +702,11 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
-      <c r="Q8" s="1"/>
+      <c r="Q8" s="3"/>
       <c r="R8" s="1"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
@@ -698,10 +723,11 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
-      <c r="Q9" s="1"/>
+      <c r="Q9" s="3"/>
       <c r="R9" s="1"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
@@ -718,10 +744,11 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
-      <c r="Q10" s="1"/>
+      <c r="Q10" s="3"/>
       <c r="R10" s="1"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
@@ -738,10 +765,11 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-      <c r="Q11" s="1"/>
+      <c r="Q11" s="3"/>
       <c r="R11" s="1"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
@@ -758,10 +786,11 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
-      <c r="Q12" s="1"/>
+      <c r="Q12" s="3"/>
       <c r="R12" s="1"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
@@ -778,10 +807,11 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-      <c r="Q13" s="1"/>
+      <c r="Q13" s="3"/>
       <c r="R13" s="1"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S13" s="1"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
@@ -798,10 +828,11 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-      <c r="Q14" s="1"/>
+      <c r="Q14" s="3"/>
       <c r="R14" s="1"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
@@ -818,10 +849,11 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
-      <c r="Q15" s="1"/>
+      <c r="Q15" s="3"/>
       <c r="R15" s="1"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S15" s="1"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="1"/>
@@ -838,10 +870,11 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-      <c r="Q16" s="1"/>
+      <c r="Q16" s="3"/>
       <c r="R16" s="1"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S16" s="1"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="1"/>
@@ -858,10 +891,11 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
-      <c r="Q17" s="1"/>
+      <c r="Q17" s="3"/>
       <c r="R17" s="1"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S17" s="1"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="1"/>
@@ -878,10 +912,11 @@
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
-      <c r="Q18" s="1"/>
+      <c r="Q18" s="3"/>
       <c r="R18" s="1"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S18" s="1"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
@@ -898,10 +933,11 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-      <c r="Q19" s="1"/>
+      <c r="Q19" s="3"/>
       <c r="R19" s="1"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S19" s="1"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
@@ -918,10 +954,11 @@
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
-      <c r="Q20" s="1"/>
+      <c r="Q20" s="3"/>
       <c r="R20" s="1"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S20" s="1"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
@@ -938,10 +975,11 @@
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
-      <c r="Q21" s="1"/>
+      <c r="Q21" s="3"/>
       <c r="R21" s="1"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S21" s="1"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="1"/>
@@ -958,10 +996,11 @@
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
-      <c r="Q22" s="1"/>
+      <c r="Q22" s="3"/>
       <c r="R22" s="1"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S22" s="1"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="1"/>
@@ -978,10 +1017,11 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
-      <c r="Q23" s="1"/>
+      <c r="Q23" s="3"/>
       <c r="R23" s="1"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S23" s="1"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="1"/>
@@ -998,10 +1038,11 @@
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
-      <c r="Q24" s="1"/>
+      <c r="Q24" s="3"/>
       <c r="R24" s="1"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S24" s="1"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
@@ -1018,10 +1059,11 @@
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
-      <c r="Q25" s="1"/>
+      <c r="Q25" s="3"/>
       <c r="R25" s="1"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S25" s="1"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="1"/>
@@ -1038,10 +1080,11 @@
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
-      <c r="Q26" s="1"/>
+      <c r="Q26" s="3"/>
       <c r="R26" s="1"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S26" s="1"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="1"/>
@@ -1058,10 +1101,11 @@
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
-      <c r="Q27" s="1"/>
+      <c r="Q27" s="3"/>
       <c r="R27" s="1"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S27" s="1"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
@@ -1078,10 +1122,11 @@
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
-      <c r="Q28" s="1"/>
+      <c r="Q28" s="3"/>
       <c r="R28" s="1"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S28" s="1"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
@@ -1098,10 +1143,11 @@
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
-      <c r="Q29" s="1"/>
+      <c r="Q29" s="3"/>
       <c r="R29" s="1"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S29" s="1"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
@@ -1118,10 +1164,11 @@
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
-      <c r="Q30" s="1"/>
+      <c r="Q30" s="3"/>
       <c r="R30" s="1"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S30" s="1"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
@@ -1138,10 +1185,11 @@
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
-      <c r="Q31" s="1"/>
+      <c r="Q31" s="3"/>
       <c r="R31" s="1"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S31" s="1"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
@@ -1158,10 +1206,11 @@
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
-      <c r="Q32" s="1"/>
+      <c r="Q32" s="3"/>
       <c r="R32" s="1"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S32" s="1"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
@@ -1178,10 +1227,11 @@
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
-      <c r="Q33" s="1"/>
+      <c r="Q33" s="3"/>
       <c r="R33" s="1"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S33" s="1"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
@@ -1198,10 +1248,11 @@
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
-      <c r="Q34" s="1"/>
+      <c r="Q34" s="3"/>
       <c r="R34" s="1"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S34" s="1"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
@@ -1218,10 +1269,11 @@
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
-      <c r="Q35" s="1"/>
+      <c r="Q35" s="3"/>
       <c r="R35" s="1"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S35" s="1"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
@@ -1238,10 +1290,11 @@
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
-      <c r="Q36" s="1"/>
+      <c r="Q36" s="3"/>
       <c r="R36" s="1"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S36" s="1"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
@@ -1258,10 +1311,11 @@
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
-      <c r="Q37" s="1"/>
+      <c r="Q37" s="3"/>
       <c r="R37" s="1"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S37" s="1"/>
+    </row>
+    <row r="38" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>16</v>
       </c>
@@ -1304,16 +1358,20 @@
         <f>SUM(P$6:P37)</f>
         <v>0</v>
       </c>
-      <c r="Q38" s="9"/>
+      <c r="Q38" s="5">
+        <f>SUM(Q$6:Q37)</f>
+        <v>0</v>
+      </c>
       <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A3:R3"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:S2"/>
+    <mergeCell ref="A3:S3"/>
     <mergeCell ref="A38:H38"/>
-    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="R38:S38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
